--- a/Team-Data/2014-15/2-21-2014-15.xlsx
+++ b/Team-Data/2014-15/2-21-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -804,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -816,10 +883,10 @@
         <v>12</v>
       </c>
       <c r="BB2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -974,13 +1041,13 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -998,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1147,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1159,7 +1226,7 @@
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>16</v>
@@ -1171,16 +1238,16 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.415</v>
+        <v>0.423</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.422</v>
@@ -1239,31 +1306,31 @@
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.308</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
         <v>23.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R5" t="n">
         <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
         <v>11.8</v>
@@ -1272,25 +1339,25 @@
         <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
         <v>18.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1323,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1335,10 +1402,10 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1353,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.625</v>
+        <v>0.618</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
         <v>12</v>
@@ -1442,10 +1509,10 @@
         <v>33.5</v>
       </c>
       <c r="T6" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V6" t="n">
         <v>14.1</v>
@@ -1457,22 +1524,22 @@
         <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1490,10 +1557,10 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>27</v>
@@ -1538,13 +1605,13 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA6" t="n">
         <v>2</v>
       </c>
-      <c r="BA6" t="n">
-        <v>3</v>
-      </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1684,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1717,10 +1784,10 @@
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.661</v>
+        <v>0.649</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,40 +1843,40 @@
         <v>39.9</v>
       </c>
       <c r="J8" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.463</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>12.5</v>
@@ -1827,13 +1894,13 @@
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,19 +1909,19 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1869,22 +1936,22 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1905,13 +1972,13 @@
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -2033,13 +2100,13 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2060,25 +2127,25 @@
         <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -2257,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
@@ -2269,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2418,10 +2485,10 @@
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -2501,76 +2568,76 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
         <v>33.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>21.6</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
         <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>5</v>
@@ -2579,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>13</v>
@@ -2597,7 +2664,7 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
         <v>7</v>
@@ -2606,13 +2673,13 @@
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>14</v>
@@ -2621,22 +2688,22 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2758,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2782,10 +2849,10 @@
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,10 +2944,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O14" t="n">
         <v>18.8</v>
@@ -2895,43 +2962,43 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
         <v>7.9</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
         <v>3.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2988,13 +3055,13 @@
         <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.245</v>
+        <v>0.241</v>
       </c>
       <c r="H15" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P15" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13</v>
@@ -3092,25 +3159,25 @@
         <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3143,28 +3210,28 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
         <v>10</v>
       </c>
       <c r="AQ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS15" t="n">
         <v>20</v>
       </c>
-      <c r="AR15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>17</v>
-      </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
         <v>19</v>
@@ -3173,13 +3240,13 @@
         <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK16" t="n">
         <v>7</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3346,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
@@ -3355,7 +3422,7 @@
         <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3367,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.426</v>
+        <v>0.434</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3423,34 +3490,34 @@
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.742</v>
       </c>
       <c r="R17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="U17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
@@ -3465,16 +3532,16 @@
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3507,7 +3574,7 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV17" t="n">
         <v>19</v>
@@ -3537,19 +3604,19 @@
         <v>24</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>2.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>11</v>
@@ -3698,10 +3765,10 @@
         <v>6</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3710,13 +3777,13 @@
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW18" t="n">
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3725,7 +3792,7 @@
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3901,10 +3968,10 @@
         <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -3957,61 +4024,61 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O20" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
         <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.761</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>99.59999999999999</v>
@@ -4020,13 +4087,13 @@
         <v>-0.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
         <v>16</v>
@@ -4035,10 +4102,10 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>14</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -4050,25 +4117,25 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
@@ -4080,13 +4147,13 @@
         <v>26</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.545</v>
+        <v>0.537</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.444</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O22" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P22" t="n">
         <v>23.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R22" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S22" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="T22" t="n">
-        <v>47</v>
+        <v>46.8</v>
       </c>
       <c r="U22" t="n">
         <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
@@ -4369,22 +4436,22 @@
         <v>6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA22" t="n">
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
@@ -4396,10 +4463,10 @@
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4408,13 +4475,13 @@
         <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
@@ -4426,7 +4493,7 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4441,10 +4508,10 @@
         <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>9</v>
@@ -4453,10 +4520,10 @@
         <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -4488,70 +4555,70 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.321</v>
+        <v>0.316</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O23" t="n">
         <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
@@ -4560,10 +4627,10 @@
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4587,7 +4654,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>9</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.518</v>
+        <v>0.527</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J25" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
         <v>9.5</v>
@@ -4885,25 +4952,25 @@
         <v>0.36</v>
       </c>
       <c r="O25" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="P25" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R25" t="n">
         <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V25" t="n">
         <v>14.9</v>
@@ -4918,22 +4985,22 @@
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB25" t="n">
         <v>106</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4951,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>7</v>
@@ -4960,31 +5027,31 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV25" t="n">
         <v>21</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>22</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M27" t="n">
         <v>15.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O27" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="P27" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.773</v>
@@ -5261,52 +5328,52 @@
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="AB27" t="n">
         <v>100.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.4</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,13 +5403,13 @@
         <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>5</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.611</v>
+        <v>0.618</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,49 +5483,49 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.5</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5473,19 +5540,19 @@
         <v>100.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>2</v>
@@ -5494,10 +5561,10 @@
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,31 +5573,31 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS28" t="n">
         <v>7</v>
       </c>
-      <c r="AO28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>6</v>
-      </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5539,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
@@ -5548,7 +5615,7 @@
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -5580,85 +5647,85 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
         <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.673</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="J29" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.454</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M29" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O29" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.783</v>
       </c>
       <c r="R29" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S29" t="n">
         <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
       </c>
       <c r="Y29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="AC29" t="n">
         <v>5.2</v>
       </c>
-      <c r="Z29" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>105.1</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>4.7</v>
-      </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
@@ -5670,16 +5737,16 @@
         <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5697,10 +5764,10 @@
         <v>4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
@@ -5712,16 +5779,16 @@
         <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>23</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
@@ -5861,10 +5928,10 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5873,7 +5940,7 @@
         <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV30" t="n">
         <v>24</v>
@@ -5900,7 +5967,7 @@
         <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>1.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6082,16 +6149,16 @@
         <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-21-2014-15</t>
+          <t>2015-02-21</t>
         </is>
       </c>
     </row>
